--- a/downloaded_files/STRS321_Tutorial-35112.xlsx
+++ b/downloaded_files/STRS321_Tutorial-35112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Saleh Hussein Hassan Khalil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200933</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد محمد سعيد خالد الناظر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Mohamed Said Khaled Elnazer</x:t>
   </x:si>
   <x:si>
     <x:t>1230037</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4364104514</x:v>
+        <x:v>45929.4433135417</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45907.4364104514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.6415517361</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4455952199</x:v>
+        <x:v>45909.6415517361</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4167295486</x:v>
+        <x:v>45907.4455952199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4213738079</x:v>
+        <x:v>45907.4167295486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4350110301</x:v>
+        <x:v>45907.4213738079</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4152352199</x:v>
+        <x:v>45907.4350110301</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4169468403</x:v>
+        <x:v>45907.4152352199</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45907.4169468403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652190972</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4152105671</x:v>
+        <x:v>45906.6652190972</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.4152105671</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
